--- a/Moral Self-Regulation/moralRows2.xlsx
+++ b/Moral Self-Regulation/moralRows2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jojo\Downloads\Helion Lab\Experiment Files\Moral Self-Regulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jojo\Downloads\GitHub\Self-Regulation-Psychopy-Files\Moral Self-Regulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F64C3D-99B5-47DF-A88D-4EAB0E2AB62F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94339CFB-32BD-42BD-AE66-ADEC181D97F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F12A8B0F-796A-4175-AABF-49E44C022677}"/>
   </bookViews>
@@ -36,18 +36,6 @@
     <t>rows2</t>
   </si>
   <si>
-    <t>004:008</t>
-  </si>
-  <si>
-    <t>008:0012</t>
-  </si>
-  <si>
-    <t>0012:0016</t>
-  </si>
-  <si>
-    <t>0016:0020</t>
-  </si>
-  <si>
     <t xml:space="preserve">In the following conditions, we would like you to take a distanced approach. Treat your decisions as if you were an objective observer, that is, someone who is watching the scene but not directly involved in it. 
 For the next few seconds, distance yourself from the circumstance and the people in the situation.
 </t>
@@ -57,9 +45,6 @@
 For the next few seconds, imagine that you are one of the people in this scene and think of how you would feel and react in this circumstance. </t>
   </si>
   <si>
-    <t>000:004</t>
-  </si>
-  <si>
     <t>CueInstructions1</t>
   </si>
   <si>
@@ -73,6 +58,21 @@
   </si>
   <si>
     <t>IMMERSE</t>
+  </si>
+  <si>
+    <t>000:005</t>
+  </si>
+  <si>
+    <t>005:009</t>
+  </si>
+  <si>
+    <t>009:0013</t>
+  </si>
+  <si>
+    <t>0013:0017</t>
+  </si>
+  <si>
+    <t>0017:0021</t>
   </si>
 </sst>
 </file>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1A3F59-81FD-4855-A665-C7F9A7AD1383}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,83 +444,83 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Moral Self-Regulation/moralRows2.xlsx
+++ b/Moral Self-Regulation/moralRows2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jojo\Downloads\GitHub\Self-Regulation-Psychopy-Files\Moral Self-Regulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tul00635\Documents\GitHub\Self-Regulation-Psychopy-Files\Moral Self-Regulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94339CFB-32BD-42BD-AE66-ADEC181D97F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F12A8B0F-796A-4175-AABF-49E44C022677}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>rows2</t>
   </si>
@@ -73,12 +72,27 @@
   </si>
   <si>
     <t>0017:0021</t>
+  </si>
+  <si>
+    <t>0021:0026</t>
+  </si>
+  <si>
+    <t>0026:0031</t>
+  </si>
+  <si>
+    <t>0031:0036</t>
+  </si>
+  <si>
+    <t>0036:0041</t>
+  </si>
+  <si>
+    <t>0041:0046</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,19 +441,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1A3F59-81FD-4855-A665-C7F9A7AD1383}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="131.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="131.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -467,7 +481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -481,7 +495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -495,7 +509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -509,7 +523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -521,6 +535,61 @@
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Moral Self-Regulation/moralRows2.xlsx
+++ b/Moral Self-Regulation/moralRows2.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>rows2</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>0041:0046</t>
+  </si>
+  <si>
+    <t>0046:0051</t>
+  </si>
+  <si>
+    <t>0056:0061</t>
+  </si>
+  <si>
+    <t>0051:0056</t>
   </si>
 </sst>
 </file>
@@ -442,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,6 +601,39 @@
         <v>7</v>
       </c>
     </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Moral Self-Regulation/moralRows2.xlsx
+++ b/Moral Self-Regulation/moralRows2.xlsx
@@ -1,108 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tul00635\Documents\GitHub\Self-Regulation-Psychopy-Files\Moral Self-Regulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="moralRows2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>rows2</t>
   </si>
   <si>
-    <t xml:space="preserve">In the following conditions, we would like you to take a distanced approach. Treat your decisions as if you were an objective observer, that is, someone who is watching the scene but not directly involved in it. 
-For the next few seconds, distance yourself from the circumstance and the people in the situation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the following conditions, we would like you to take an involved approach. Treat your decisions as if you are part of the situation, that is, as someone who is in charge of and responsible for the results of the decision. 
-For the next few seconds, imagine that you are one of the people in this scene and think of how you would feel and react in this circumstance. </t>
-  </si>
-  <si>
     <t>CueInstructions1</t>
   </si>
   <si>
     <t>CueInstructions2</t>
   </si>
   <si>
-    <t>CueInst</t>
-  </si>
-  <si>
-    <t>DISTANCE</t>
-  </si>
-  <si>
-    <t>IMMERSE</t>
+    <t>DE-EMPHASIZE</t>
+  </si>
+  <si>
+    <t>EMPHASIZE</t>
+  </si>
+  <si>
+    <t>005:009</t>
+  </si>
+  <si>
+    <t>009:0013</t>
+  </si>
+  <si>
+    <t>0013:0017</t>
+  </si>
+  <si>
+    <t>0017:0021</t>
+  </si>
+  <si>
+    <t>0021:0026</t>
+  </si>
+  <si>
+    <t>0026:0031</t>
+  </si>
+  <si>
+    <t>0031:0036</t>
+  </si>
+  <si>
+    <t>0036:0041</t>
+  </si>
+  <si>
+    <t>0041:0046</t>
+  </si>
+  <si>
+    <t>0046:0051</t>
+  </si>
+  <si>
+    <t>0051:0056</t>
+  </si>
+  <si>
+    <t>0056:0061</t>
   </si>
   <si>
     <t>000:005</t>
-  </si>
-  <si>
-    <t>005:009</t>
-  </si>
-  <si>
-    <t>009:0013</t>
-  </si>
-  <si>
-    <t>0013:0017</t>
-  </si>
-  <si>
-    <t>0017:0021</t>
-  </si>
-  <si>
-    <t>0021:0026</t>
-  </si>
-  <si>
-    <t>0026:0031</t>
-  </si>
-  <si>
-    <t>0031:0036</t>
-  </si>
-  <si>
-    <t>0036:0041</t>
-  </si>
-  <si>
-    <t>0041:0046</t>
-  </si>
-  <si>
-    <t>0046:0051</t>
-  </si>
-  <si>
-    <t>0056:0061</t>
-  </si>
-  <si>
-    <t>0051:0056</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,16 +87,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -127,19 +404,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -171,7 +634,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -183,7 +646,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -230,23 +693,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -282,23 +728,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,188 +880,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="131.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
